--- a/Library_benchmark/Content/Resource/DummyReport.xlsx
+++ b/Library_benchmark/Content/Resource/DummyReport.xlsx
@@ -105,11 +105,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,39 +129,37 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>453118</xdr:colOff>
+      <xdr:colOff>466222</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>561975</xdr:rowOff>
+      <xdr:rowOff>571362</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1" descr="Resultado de imagen para Cemex"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Cemex.png"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="104775" y="114300"/>
-          <a:ext cx="4005943" cy="1095375"/>
+          <a:off x="95250" y="114300"/>
+          <a:ext cx="4028572" cy="1104762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -457,7 +455,7 @@
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -473,13 +471,13 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -492,11 +490,11 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -519,14 +517,14 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
